--- a/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_6_sine_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_6_sine_0_.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[49.98331815238989, 50.069814100515096]</t>
+          <t>[49.983317657231666, 50.06981459567332]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[49.98507143058676, 50.04634596584428]</t>
+          <t>[49.98509068464103, 50.04632671179001]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[49.90583164846011, 50.09014697502589]</t>
+          <t>[49.90765865717907, 50.088319966306926]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[49.958301695442174, 50.05330918643182]</t>
+          <t>[49.95826818553987, 50.05334269633412]</t>
         </is>
       </c>
       <c r="U3" t="n">

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_6_sine_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_6_sine_0_.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[49.983317657231666, 50.06981459567332]</t>
+          <t>[49.98330846616789, 50.069823786737096]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[49.98509068464103, 50.04632671179001]</t>
+          <t>[49.985044833940854, 50.046372562490184]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[49.90765865717907, 50.088319966306926]</t>
+          <t>[49.90685251235088, 50.089126111135116]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[49.95826818553987, 50.05334269633412]</t>
+          <t>[49.958202349512646, 50.053408532361345]</t>
         </is>
       </c>
       <c r="U3" t="n">
